--- a/biology/Botanique/Macroptilium/Macroptilium.xlsx
+++ b/biology/Botanique/Macroptilium/Macroptilium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Macroptilium est un genre de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, originaire d'Amérique, qui comprend une vingtaine d'espèces acceptées.
 Ce sont des plantes herbacées à port dressé ou grimpant, aux feuilles trifoliées. Des espèces de ce genre ont été introduites dans la plupart des régions tropicales et subtropicales. Certaines espèces sont cultivées comme plantes fourragères, notamment Macroptilium atropurpureum et Macroptilium lathyroides
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (3 novembre 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (3 novembre 2018) :
 Macroptilium arenarium (Bacigalupo) S.I. Drewes &amp; R.A. Palacios
 Macroptilium atropurpureum (DC.) Urb.
 Macroptilium bracteatum (Nees &amp; C.Mart.) Marechal &amp; Bau
